--- a/EXCEL ASSIGNMENT.xlsx
+++ b/EXCEL ASSIGNMENT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Excel Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50860F0-35D5-4D4B-897B-D4AD7697A5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3290C18-5F8A-421F-BA08-6A0DB5C7DC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{88827FA4-61E9-4245-9AD6-B828AA5E5017}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{88827FA4-61E9-4245-9AD6-B828AA5E5017}"/>
   </bookViews>
   <sheets>
     <sheet name="WORKSHEET1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">WORKSHEET1!$A$1:$E$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">WORKSHEET2!$A$1:$E$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">WORKSHEET3!$B$1:$B$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">WORKSHEET3!$D$1:$D$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -373,44 +373,77 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+  <dxfs count="65">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -423,6 +456,63 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -449,6 +539,338 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -822,11 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016A5D76-0D69-4C16-89C8-94A770EEC65E}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -853,7 +1274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -887,7 +1308,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -904,7 +1325,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -921,7 +1342,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -938,7 +1359,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -955,7 +1376,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -989,7 +1410,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1023,7 +1444,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1040,7 +1461,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1074,7 +1495,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1108,7 +1529,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1125,7 +1546,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1142,7 +1563,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1176,7 +1597,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -1194,15 +1615,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E21" xr:uid="{016A5D76-0D69-4C16-89C8-94A770EEC65E}">
-    <filterColumn colId="4">
-      <customFilters>
-        <customFilter val="*FREE*"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="D3:D20">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="D20">
+    <cfRule type="cellIs" dxfId="64" priority="1" operator="greaterThan">
       <formula>10000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1215,7 +1629,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1805,22 +2219,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E25" xr:uid="{71DFE6BB-9DA3-4B37-B0EE-807C2F7F0BCF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E25">
-      <sortCondition ref="B1:B25"/>
-    </sortState>
-  </autoFilter>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="63" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A26:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="61" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1830,8 +2239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA2BF78-CEB3-40B2-ABB8-2011A76BEB46}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2201,36 +2610,51 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B25" xr:uid="{ECA2BF78-CEB3-40B2-ABB8-2011A76BEB46}"/>
   <conditionalFormatting sqref="A1:A21">
-    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B21">
-    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:E21">
-    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="Martha, Prince, George, Chinedu">
+  <conditionalFormatting sqref="A1:E1 A2:C21 E2:E21 D2:D22">
+    <cfRule type="containsText" dxfId="25" priority="12" operator="containsText" text="Martha, Prince, George, Chinedu">
       <formula>NOT(ISERROR(SEARCH("Martha, Prince, George, Chinedu",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B21">
+    <cfRule type="duplicateValues" dxfId="24" priority="13"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="between">
       <formula>"E"</formula>
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
       <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B4:B5">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="E">
+      <formula>NOT(ISERROR(SEARCH("E",B4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1 D23:D1048576">
+    <cfRule type="aboveAverage" dxfId="20" priority="6"/>
+    <cfRule type="aboveAverage" dxfId="19" priority="7"/>
+    <cfRule type="aboveAverage" dxfId="18" priority="8" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="17" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D22">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="25,000">
+      <formula>NOT(ISERROR(SEARCH("25,000",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="aboveAverage" dxfId="8" priority="2"/>
-    <cfRule type="aboveAverage" dxfId="7" priority="3"/>
-    <cfRule type="aboveAverage" dxfId="6" priority="4" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="5" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B5">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="E">
-      <formula>NOT(ISERROR(SEARCH("E",B4)))</formula>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>25000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>5000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>25000</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
